--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.675031333333333</v>
+        <v>0.08097566666666667</v>
       </c>
       <c r="H2">
-        <v>11.025094</v>
+        <v>0.242927</v>
       </c>
       <c r="I2">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505014</v>
       </c>
       <c r="J2">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505015</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.021200333333333</v>
+        <v>1.923239</v>
       </c>
       <c r="N2">
-        <v>12.063601</v>
+        <v>5.769717</v>
       </c>
       <c r="O2">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="P2">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="Q2">
-        <v>14.77803722261044</v>
+        <v>0.1557355601843333</v>
       </c>
       <c r="R2">
-        <v>133.002335003494</v>
+        <v>1.401620041659</v>
       </c>
       <c r="S2">
-        <v>0.07922222695909217</v>
+        <v>0.001307970568307944</v>
       </c>
       <c r="T2">
-        <v>0.07922222695909217</v>
+        <v>0.001307970568307944</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.675031333333333</v>
+        <v>0.08097566666666667</v>
       </c>
       <c r="H3">
-        <v>11.025094</v>
+        <v>0.242927</v>
       </c>
       <c r="I3">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505014</v>
       </c>
       <c r="J3">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505015</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>10.688986</v>
       </c>
       <c r="O3">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612247</v>
       </c>
       <c r="P3">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612246</v>
       </c>
       <c r="Q3">
-        <v>13.09411949052044</v>
+        <v>0.2885159224468889</v>
       </c>
       <c r="R3">
-        <v>117.847075414684</v>
+        <v>2.596643302022</v>
       </c>
       <c r="S3">
-        <v>0.07019506653565208</v>
+        <v>0.002423148153203294</v>
       </c>
       <c r="T3">
-        <v>0.07019506653565208</v>
+        <v>0.002423148153203294</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.675031333333333</v>
+        <v>0.08097566666666667</v>
       </c>
       <c r="H4">
-        <v>11.025094</v>
+        <v>0.242927</v>
       </c>
       <c r="I4">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505014</v>
       </c>
       <c r="J4">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505015</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>8.195437999999999</v>
       </c>
       <c r="O4">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="P4">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="Q4">
-        <v>10.03949714679689</v>
+        <v>0.2212103518917778</v>
       </c>
       <c r="R4">
-        <v>90.35547432117198</v>
+        <v>1.990893167026</v>
       </c>
       <c r="S4">
-        <v>0.05381982123456905</v>
+        <v>0.001857871312993777</v>
       </c>
       <c r="T4">
-        <v>0.05381982123456905</v>
+        <v>0.001857871312993777</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>30.325482</v>
       </c>
       <c r="I5">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="J5">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.021200333333333</v>
+        <v>1.923239</v>
       </c>
       <c r="N5">
-        <v>12.063601</v>
+        <v>5.769717</v>
       </c>
       <c r="O5">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="P5">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="Q5">
-        <v>40.648279442298</v>
+        <v>19.441049892066</v>
       </c>
       <c r="R5">
-        <v>365.8345149806819</v>
+        <v>174.969449028594</v>
       </c>
       <c r="S5">
-        <v>0.2179076403020114</v>
+        <v>0.1632788365465852</v>
       </c>
       <c r="T5">
-        <v>0.2179076403020114</v>
+        <v>0.1632788365465852</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>30.325482</v>
       </c>
       <c r="I6">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="J6">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>10.688986</v>
       </c>
       <c r="O6">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612247</v>
       </c>
       <c r="P6">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612246</v>
       </c>
       <c r="Q6">
         <v>36.016516949028</v>
@@ -818,10 +818,10 @@
         <v>324.148652541252</v>
       </c>
       <c r="S6">
-        <v>0.1930776487452823</v>
+        <v>0.3024906070683775</v>
       </c>
       <c r="T6">
-        <v>0.1930776487452823</v>
+        <v>0.3024906070683775</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>30.325482</v>
       </c>
       <c r="I7">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="J7">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>8.195437999999999</v>
       </c>
       <c r="O7">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="P7">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="Q7">
         <v>27.614511950124</v>
@@ -880,10 +880,10 @@
         <v>248.530607551116</v>
       </c>
       <c r="S7">
-        <v>0.1480361092696481</v>
+        <v>0.2319249941773008</v>
       </c>
       <c r="T7">
-        <v>0.1480361092696481</v>
+        <v>0.2319249941773008</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>12.896868</v>
       </c>
       <c r="I8">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732315</v>
       </c>
       <c r="J8">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732316</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.021200333333333</v>
+        <v>1.923239</v>
       </c>
       <c r="N8">
-        <v>12.063601</v>
+        <v>5.769717</v>
       </c>
       <c r="O8">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="P8">
-        <v>0.3898019663613429</v>
+        <v>0.2340262838603868</v>
       </c>
       <c r="Q8">
-        <v>17.28696330018533</v>
+        <v>8.267919838484001</v>
       </c>
       <c r="R8">
-        <v>155.582669701668</v>
+        <v>74.411278546356</v>
       </c>
       <c r="S8">
-        <v>0.09267209910023927</v>
+        <v>0.06943947674549363</v>
       </c>
       <c r="T8">
-        <v>0.09267209910023927</v>
+        <v>0.06943947674549363</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>12.896868</v>
       </c>
       <c r="I9">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732315</v>
       </c>
       <c r="J9">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732316</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>10.688986</v>
       </c>
       <c r="O9">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612247</v>
       </c>
       <c r="P9">
-        <v>0.3453850770768087</v>
+        <v>0.4335574295612246</v>
       </c>
       <c r="Q9">
         <v>15.31716016620534</v>
@@ -1004,10 +1004,10 @@
         <v>137.854441495848</v>
       </c>
       <c r="S9">
-        <v>0.08211236179587424</v>
+        <v>0.1286436743396439</v>
       </c>
       <c r="T9">
-        <v>0.08211236179587424</v>
+        <v>0.1286436743396439</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>12.896868</v>
       </c>
       <c r="I10">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732315</v>
       </c>
       <c r="J10">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732316</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>8.195437999999999</v>
       </c>
       <c r="O10">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="P10">
-        <v>0.2648129565618484</v>
+        <v>0.3324162865783886</v>
       </c>
       <c r="Q10">
         <v>11.74394245424267</v>
@@ -1066,10 +1066,10 @@
         <v>105.695482088184</v>
       </c>
       <c r="S10">
-        <v>0.06295702605763127</v>
+        <v>0.09863342108809404</v>
       </c>
       <c r="T10">
-        <v>0.06295702605763127</v>
+        <v>0.09863342108809406</v>
       </c>
     </row>
   </sheetData>
